--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,28 +383,28 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>3.112352414738414</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="2">
@@ -414,28 +414,28 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3.112352414738414</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="3">
@@ -445,28 +445,28 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3.112352414738414</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="4">
@@ -476,28 +476,28 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.112352414738414</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="5">
@@ -507,28 +507,28 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.112352414738414</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="6">
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="7">
@@ -569,28 +569,28 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="8">
@@ -600,28 +600,28 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="9">
@@ -631,28 +631,28 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="10">
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="11">
@@ -693,28 +693,28 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="12">
@@ -724,28 +724,28 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="13">
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="14">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="I14" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="15">
@@ -817,28 +817,28 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="16">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="17">
@@ -879,28 +879,28 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="18">
@@ -910,28 +910,28 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="19">
@@ -941,28 +941,28 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="I19" s="0" t="n">
-        <v>3.101872805400852</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="20">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3.09431598897369</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="21">
@@ -1003,28 +1003,28 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3.09431598897369</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="22">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>3.09431598897369</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="23">
@@ -1065,28 +1065,28 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>3.09431598897369</v>
+        <v>4.059333592638974</v>
       </c>
     </row>
     <row r="24">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>25</v>
@@ -1111,13 +1111,13 @@
         <v>600</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>3.086174193273294</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="25">
@@ -1133,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>25</v>
@@ -1142,13 +1142,13 @@
         <v>600</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>3.086174193273294</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="26">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>3.086174193273294</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="27">
@@ -1189,28 +1189,28 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>3.086174193273294</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="28">
@@ -1226,22 +1226,22 @@
         <v>60</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>3.086174193273294</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="29">
@@ -1251,28 +1251,28 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3.08335377910065</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="30">
@@ -1282,28 +1282,28 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>3.08335377910065</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="31">
@@ -1313,28 +1313,28 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>3.08335377910065</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="32">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="33">
@@ -1375,28 +1375,28 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="34">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>25</v>
@@ -1421,13 +1421,13 @@
         <v>600</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="35">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>25</v>
@@ -1452,13 +1452,13 @@
         <v>600</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="36">
@@ -1468,28 +1468,28 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="37">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>25</v>
@@ -1514,13 +1514,13 @@
         <v>600</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="38">
@@ -1530,16 +1530,16 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>600</v>
@@ -1548,10 +1548,10 @@
         <v>1000</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="39">
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>25</v>
@@ -1576,13 +1576,13 @@
         <v>600</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>4.04689610910461</v>
       </c>
     </row>
     <row r="40">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>3.078876031793116</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="41">
@@ -1623,28 +1623,28 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>3.070802528735733</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="42">
@@ -1654,28 +1654,28 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3.070802528735733</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="43">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>3.070802528735733</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="44">
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>3.070802528735733</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="45">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>3.070800885406226</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="46">
@@ -1778,28 +1778,28 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>3.061737876024671</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="47">
@@ -1809,28 +1809,28 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>3.061737876024671</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="48">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="I48" s="0" t="n">
-        <v>3.061737876024671</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="49">
@@ -1871,28 +1871,28 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>3.061737876024671</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="50">
@@ -1902,28 +1902,28 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="51">
@@ -1933,28 +1933,28 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="52">
@@ -1964,28 +1964,28 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="53">
@@ -1995,28 +1995,28 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>2500</v>
+        <v>850</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="54">
@@ -2026,28 +2026,28 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="55">
@@ -2057,28 +2057,28 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="56">
@@ -2088,28 +2088,28 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="57">
@@ -2119,28 +2119,28 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1400</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="58">
@@ -2150,28 +2150,28 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="59">
@@ -2181,28 +2181,28 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="60">
@@ -2212,28 +2212,28 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="61">
@@ -2243,28 +2243,28 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="62">
@@ -2274,28 +2274,28 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="63">
@@ -2305,28 +2305,28 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="64">
@@ -2342,22 +2342,22 @@
         <v>120</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="65">
@@ -2367,28 +2367,28 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="66">
@@ -2398,28 +2398,28 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="67">
@@ -2429,13 +2429,13 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>25</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="68">
@@ -2460,28 +2460,28 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="69">
@@ -2491,28 +2491,28 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1400</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="70">
@@ -2522,28 +2522,28 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="71">
@@ -2553,28 +2553,28 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="72">
@@ -2584,28 +2584,28 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="73">
@@ -2615,28 +2615,28 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D73" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="74">
@@ -2646,28 +2646,28 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="75">
@@ -2677,28 +2677,28 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="H75" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="76">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="77">
@@ -2739,28 +2739,28 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="78">
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="79">
@@ -2801,28 +2801,28 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="80">
@@ -2832,28 +2832,28 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="81">
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="82">
@@ -2894,28 +2894,28 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="83">
@@ -2925,28 +2925,28 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="84">
@@ -2956,28 +2956,28 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="85">
@@ -2993,22 +2993,22 @@
         <v>70</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="86">
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>11</v>
@@ -3030,16 +3030,16 @@
         <v>13</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="87">
@@ -3049,28 +3049,28 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="88">
@@ -3083,25 +3083,25 @@
         <v>60</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="89">
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="90">
@@ -3142,28 +3142,28 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="91">
@@ -3173,28 +3173,28 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F91" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="G91" s="0" t="n">
-        <v>2500</v>
-      </c>
       <c r="H91" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="92">
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="93">
@@ -3235,28 +3235,28 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="94">
@@ -3266,28 +3266,28 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="95">
@@ -3297,28 +3297,28 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="96">
@@ -3328,28 +3328,28 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C96" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H96" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="G96" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="I96" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="97">
@@ -3359,28 +3359,28 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="98">
@@ -3390,28 +3390,28 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>2500</v>
+        <v>950</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="99">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="100">
@@ -3452,28 +3452,28 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="101">
@@ -3483,28 +3483,28 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="102">
@@ -3514,28 +3514,28 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D102" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H102" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E102" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="I102" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="103">
@@ -3545,28 +3545,28 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D103" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H103" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E103" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="I103" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="104">
@@ -3576,28 +3576,28 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="105">
@@ -3607,28 +3607,28 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="106">
@@ -3638,28 +3638,28 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="107">
@@ -3669,28 +3669,28 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C107" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D107" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="108">
@@ -3700,28 +3700,28 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>700</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="109">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>950</v>
+        <v>2500</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="110">
@@ -3762,28 +3762,28 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="111">
@@ -3793,28 +3793,28 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="112">
@@ -3824,28 +3824,28 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="113">
@@ -3855,28 +3855,28 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="114">
@@ -3886,28 +3886,28 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="115">
@@ -3917,28 +3917,28 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="116">
@@ -3948,28 +3948,28 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="117">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>13</v>
@@ -3991,16 +3991,16 @@
         <v>25</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="118">
@@ -4013,25 +4013,25 @@
         <v>40</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="119">
@@ -4041,28 +4041,28 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="120">
@@ -4072,28 +4072,28 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="121">
@@ -4103,28 +4103,28 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="122">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="123">
@@ -4165,28 +4165,28 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="124">
@@ -4196,28 +4196,28 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="125">
@@ -4227,28 +4227,28 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="126">
@@ -4258,28 +4258,28 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="127">
@@ -4289,28 +4289,28 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="128">
@@ -4323,25 +4323,25 @@
         <v>60</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D128" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E128" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E128" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="F128" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="129">
@@ -4351,28 +4351,28 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="130">
@@ -4382,28 +4382,28 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="131">
@@ -4413,28 +4413,28 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>900</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="132">
@@ -4444,28 +4444,28 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="133">
@@ -4475,28 +4475,28 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="134">
@@ -4506,28 +4506,28 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="135">
@@ -4537,28 +4537,28 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="136">
@@ -4568,28 +4568,28 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="137">
@@ -4602,25 +4602,25 @@
         <v>70</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.831800711459679</v>
       </c>
     </row>
     <row r="138">
@@ -4630,28 +4630,28 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D138" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C138" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="E138" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="139">
@@ -4661,28 +4661,28 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="140">
@@ -4692,28 +4692,28 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="141">
@@ -4723,28 +4723,28 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="142">
@@ -4760,22 +4760,22 @@
         <v>60</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="143">
@@ -4788,25 +4788,25 @@
         <v>30</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="144">
@@ -4816,28 +4816,28 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="145">
@@ -4847,28 +4847,28 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.748011151841867</v>
       </c>
     </row>
     <row r="146">
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.658780019262942</v>
       </c>
     </row>
     <row r="147">
@@ -4909,28 +4909,28 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="G147" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="H147" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="148">
@@ -4940,28 +4940,28 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="149">
@@ -4971,28 +4971,28 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="150">
@@ -5002,28 +5002,28 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="151">
@@ -5033,28 +5033,28 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="152">
@@ -5064,28 +5064,28 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="153">
@@ -5095,28 +5095,28 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="154">
@@ -5126,28 +5126,28 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="155">
@@ -5157,28 +5157,28 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="156">
@@ -5188,28 +5188,28 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="157">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>19</v>
@@ -5231,16 +5231,16 @@
         <v>24</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="158">
@@ -5253,25 +5253,25 @@
         <v>30</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="159">
@@ -5281,28 +5281,28 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="160">
@@ -5312,28 +5312,28 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="161">
@@ -5343,28 +5343,28 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="162">
@@ -5374,28 +5374,28 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="163">
@@ -5405,28 +5405,28 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="164">
@@ -5436,28 +5436,28 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="165">
@@ -5467,28 +5467,28 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="166">
@@ -5498,28 +5498,28 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="167">
@@ -5529,28 +5529,28 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="168">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>17</v>
@@ -5572,16 +5572,16 @@
         <v>25</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="169">
@@ -5591,28 +5591,28 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="170">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="171">
@@ -5656,25 +5656,25 @@
         <v>60</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="172">
@@ -5684,28 +5684,28 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="173">
@@ -5715,28 +5715,28 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="174">
@@ -5746,28 +5746,28 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="175">
@@ -5777,28 +5777,28 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="176">
@@ -5808,28 +5808,28 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="177">
@@ -5839,28 +5839,28 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="178">
@@ -5870,28 +5870,28 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="179">
@@ -5901,28 +5901,28 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="180">
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="181">
@@ -5966,25 +5966,25 @@
         <v>30</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="G181" s="0" t="n">
-        <v>2500</v>
-      </c>
       <c r="H181" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="182">
@@ -5997,25 +5997,25 @@
         <v>30</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="183">
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="184">
@@ -6056,28 +6056,28 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="185">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>25</v>
@@ -6102,13 +6102,13 @@
         <v>0</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="186">
@@ -6118,28 +6118,28 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="187">
@@ -6149,28 +6149,28 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="188">
@@ -6180,28 +6180,28 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="189">
@@ -6211,28 +6211,28 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="190">
@@ -6242,28 +6242,28 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="191">
@@ -6273,28 +6273,28 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="192">
@@ -6304,28 +6304,28 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="193">
@@ -6335,28 +6335,28 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="194">
@@ -6366,28 +6366,28 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="G194" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="H194" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="195">
@@ -6397,28 +6397,28 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>3.048910951420311</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="196">
@@ -6428,28 +6428,28 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>2.667536756840834</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="197">
@@ -6459,28 +6459,28 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>2.667536756840834</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="198">
@@ -6490,28 +6490,28 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>2.452095328089952</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="199">
@@ -6524,25 +6524,25 @@
         <v>20</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>2.452095328089952</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="200">
@@ -6552,28 +6552,28 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>1.34798712639063</v>
+        <v>3.566543066185521</v>
       </c>
     </row>
     <row r="201">

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -386,25 +386,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>3.736020345132216</v>
+        <v>4.558084846275031</v>
       </c>
     </row>
     <row r="2">
@@ -417,25 +417,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3.736020345132216</v>
+        <v>4.558084846275031</v>
       </c>
     </row>
     <row r="3">
@@ -448,25 +448,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3.736020345132216</v>
+        <v>4.558084846275031</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>14</v>
@@ -488,16 +488,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.712502196630329</v>
+        <v>4.378129751786685</v>
       </c>
     </row>
     <row r="5">
@@ -507,28 +507,28 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.712502196630329</v>
+        <v>4.378129751786685</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>14</v>
@@ -550,16 +550,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3.712502196630329</v>
+        <v>4.378129751786685</v>
       </c>
     </row>
     <row r="7">
@@ -569,28 +569,28 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.708971512398735</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="8">
@@ -600,28 +600,28 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3.696955406578468</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="9">
@@ -631,28 +631,28 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3.614318530763228</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="10">
@@ -665,25 +665,25 @@
         <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3.614318530763228</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="11">
@@ -693,28 +693,28 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3.600891355581724</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="12">
@@ -724,28 +724,28 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3.595854345884001</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="13">
@@ -758,25 +758,25 @@
         <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3.595854345884001</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="14">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="15">
@@ -817,28 +817,28 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="16">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D16" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="I16" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="17">
@@ -882,25 +882,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>800</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="18">
@@ -910,28 +910,28 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="F18" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="19">
@@ -941,28 +941,28 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="F19" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="20">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="21">
@@ -1003,28 +1003,28 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="22">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="23">
@@ -1068,25 +1068,25 @@
         <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="E23" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="24">
@@ -1096,28 +1096,28 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="25">
@@ -1127,28 +1127,28 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="I25" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="26">
@@ -1161,25 +1161,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="27">
@@ -1189,28 +1189,28 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="28">
@@ -1220,28 +1220,28 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>19</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="29">
@@ -1251,28 +1251,28 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="30">
@@ -1282,28 +1282,28 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E30" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="I30" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="31">
@@ -1313,28 +1313,28 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="32">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="33">
@@ -1375,28 +1375,28 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="34">
@@ -1406,28 +1406,28 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>950</v>
+        <v>2500</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="35">
@@ -1437,28 +1437,28 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="36">
@@ -1468,28 +1468,28 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="37">
@@ -1499,28 +1499,28 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="38">
@@ -1530,28 +1530,28 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="I38" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="39">
@@ -1561,28 +1561,28 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="40">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>4.269132093741455</v>
       </c>
     </row>
     <row r="41">
@@ -1623,28 +1623,28 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="42">
@@ -1654,28 +1654,28 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="43">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1300</v>
+        <v>850</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="44">
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="45">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="46">
@@ -1778,28 +1778,28 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="47">
@@ -1809,28 +1809,28 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="48">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="49">
@@ -1871,28 +1871,28 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C49" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C49" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D49" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="50">
@@ -1902,28 +1902,28 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="51">
@@ -1933,28 +1933,28 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="52">
@@ -1964,28 +1964,28 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G52" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>2500</v>
-      </c>
       <c r="H52" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="53">
@@ -1995,28 +1995,28 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>2500</v>
+        <v>950</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="54">
@@ -2026,28 +2026,28 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="55">
@@ -2057,28 +2057,28 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="56">
@@ -2091,25 +2091,25 @@
         <v>40</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="57">
@@ -2119,28 +2119,28 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="58">
@@ -2150,28 +2150,28 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C58" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D58" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="59">
@@ -2181,28 +2181,28 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C59" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="E59" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="H59" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="60">
@@ -2212,28 +2212,28 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="61">
@@ -2243,28 +2243,28 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="62">
@@ -2274,19 +2274,19 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>2500</v>
@@ -2295,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="63">
@@ -2305,28 +2305,28 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="F63" s="0" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="64">
@@ -2336,28 +2336,28 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="65">
@@ -2367,28 +2367,28 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="66">
@@ -2401,25 +2401,25 @@
         <v>130</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E66" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F66" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="I66" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="67">
@@ -2429,28 +2429,28 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C67" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="D67" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="68">
@@ -2460,28 +2460,28 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="69">
@@ -2491,28 +2491,28 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="70">
@@ -2522,28 +2522,28 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="71">
@@ -2553,28 +2553,28 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="72">
@@ -2584,28 +2584,28 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="73">
@@ -2615,28 +2615,28 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="74">
@@ -2646,28 +2646,28 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="75">
@@ -2680,25 +2680,25 @@
         <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="E75" s="0" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="76">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>950</v>
+        <v>1500</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="77">
@@ -2739,28 +2739,28 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="78">
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="79">
@@ -2801,28 +2801,28 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>2500</v>
+        <v>850</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="80">
@@ -2832,28 +2832,28 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="81">
@@ -2863,28 +2863,28 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F81" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="I81" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="82">
@@ -2894,28 +2894,28 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="83">
@@ -2925,28 +2925,28 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="84">
@@ -2959,7 +2959,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>14</v>
@@ -2968,16 +2968,16 @@
         <v>21</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1600</v>
+        <v>950</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="85">
@@ -2987,28 +2987,28 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="86">
@@ -3018,28 +3018,28 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="87">
@@ -3049,28 +3049,28 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="88">
@@ -3080,28 +3080,28 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="89">
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E89" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H89" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F89" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="I89" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="90">
@@ -3142,28 +3142,28 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="91">
@@ -3173,28 +3173,28 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F91" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>950</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>1600</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>17</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="92">
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="93">
@@ -3235,28 +3235,28 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="94">
@@ -3266,28 +3266,28 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C94" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="D94" s="0" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="95">
@@ -3297,28 +3297,28 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="96">
@@ -3328,28 +3328,28 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="97">
@@ -3359,28 +3359,28 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E97" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F97" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="98">
@@ -3390,28 +3390,28 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="99">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="100">
@@ -3452,28 +3452,28 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C100" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D100" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>3.591913341280337</v>
+        <v>3.671173135269061</v>
       </c>
     </row>
     <row r="101">

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,28 +383,28 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>3.784946512992511</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="2">
@@ -414,28 +414,28 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3.784946512992511</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="3">
@@ -445,28 +445,28 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I3" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="4">
@@ -476,28 +476,28 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="5">
@@ -510,25 +510,25 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="6">
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="8">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>23</v>
@@ -615,13 +615,13 @@
         <v>500</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="9">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="10">
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="11">
@@ -693,28 +693,28 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="12">
@@ -724,28 +724,28 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="13">
@@ -758,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>23</v>
@@ -770,13 +770,13 @@
         <v>500</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="14">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="15">
@@ -817,28 +817,28 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="16">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="17">
@@ -879,28 +879,28 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="18">
@@ -910,28 +910,28 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="19">
@@ -941,28 +941,28 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="20">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="21">
@@ -1003,28 +1003,28 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="22">
@@ -1037,25 +1037,25 @@
         <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="23">
@@ -1065,28 +1065,28 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="24">
@@ -1096,28 +1096,28 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="25">
@@ -1127,28 +1127,28 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="26">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1192,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="28">
@@ -1220,28 +1220,28 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="29">
@@ -1251,28 +1251,28 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="30">
@@ -1282,28 +1282,28 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="31">
@@ -1313,28 +1313,28 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="32">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="33">
@@ -1375,28 +1375,28 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="34">
@@ -1406,28 +1406,28 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="35">
@@ -1440,25 +1440,25 @@
         <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="36">
@@ -1471,25 +1471,25 @@
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="37">
@@ -1499,28 +1499,28 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="38">
@@ -1530,28 +1530,28 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="39">
@@ -1561,28 +1561,28 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="40">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>3.65554706486502</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="41">
@@ -1626,25 +1626,25 @@
         <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="42">
@@ -1654,28 +1654,28 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="43">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="44">
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="45">
@@ -1753,22 +1753,22 @@
         <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="46">
@@ -1778,28 +1778,28 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="47">
@@ -1812,25 +1812,25 @@
         <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="48">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="49">
@@ -1871,28 +1871,28 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="50">
@@ -1902,28 +1902,28 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="51">
@@ -1936,25 +1936,25 @@
         <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="52">
@@ -1964,28 +1964,28 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="53">
@@ -1995,28 +1995,28 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="54">
@@ -2026,28 +2026,28 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="55">
@@ -2057,28 +2057,28 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="56">
@@ -2088,28 +2088,28 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="57">
@@ -2122,25 +2122,25 @@
         <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.999423605835022</v>
       </c>
     </row>
     <row r="58">
@@ -2150,28 +2150,28 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="59">
@@ -2181,28 +2181,28 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="60">
@@ -2212,13 +2212,13 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>22</v>
@@ -2230,10 +2230,10 @@
         <v>1500</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="61">
@@ -2243,28 +2243,28 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="62">
@@ -2274,13 +2274,13 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>22</v>
@@ -2292,10 +2292,10 @@
         <v>1500</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="63">
@@ -2305,28 +2305,28 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="64">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>22</v>
@@ -2354,10 +2354,10 @@
         <v>1500</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="65">
@@ -2367,28 +2367,28 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="66">
@@ -2398,16 +2398,16 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>600</v>
@@ -2416,10 +2416,10 @@
         <v>1500</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="67">
@@ -2429,28 +2429,28 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="68">
@@ -2460,28 +2460,28 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="69">
@@ -2491,28 +2491,28 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="70">
@@ -2522,13 +2522,13 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>22</v>
@@ -2537,13 +2537,13 @@
         <v>600</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="71">
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>22</v>
@@ -2571,10 +2571,10 @@
         <v>1500</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="72">
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>600</v>
@@ -2602,10 +2602,10 @@
         <v>1500</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="73">
@@ -2615,28 +2615,28 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="74">
@@ -2646,28 +2646,28 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="75">
@@ -2677,28 +2677,28 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.995885995629408</v>
       </c>
     </row>
     <row r="76">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.891483814467913</v>
       </c>
     </row>
     <row r="77">
@@ -2739,28 +2739,28 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>600</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.891483814467913</v>
       </c>
     </row>
     <row r="78">
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.891483814467913</v>
       </c>
     </row>
     <row r="79">
@@ -2801,28 +2801,28 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.890155706431593</v>
       </c>
     </row>
     <row r="80">
@@ -2832,28 +2832,28 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.890155706431593</v>
       </c>
     </row>
     <row r="81">
@@ -2863,28 +2863,28 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.890155706431593</v>
       </c>
     </row>
     <row r="82">
@@ -2894,28 +2894,28 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.890155706431593</v>
       </c>
     </row>
     <row r="83">
@@ -2925,28 +2925,28 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.890155706431593</v>
       </c>
     </row>
     <row r="84">
@@ -2956,28 +2956,28 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="85">
@@ -2987,28 +2987,28 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="86">
@@ -3018,16 +3018,16 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>500</v>
@@ -3036,10 +3036,10 @@
         <v>1500</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="87">
@@ -3049,28 +3049,28 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="88">
@@ -3080,28 +3080,28 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="89">
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="90">
@@ -3142,28 +3142,28 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="91">
@@ -3173,28 +3173,28 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="92">
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="93">
@@ -3235,28 +3235,28 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="94">
@@ -3266,28 +3266,28 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.844309634770045</v>
       </c>
     </row>
     <row r="95">
@@ -3297,28 +3297,28 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="96">
@@ -3328,28 +3328,28 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="97">
@@ -3359,28 +3359,28 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="98">
@@ -3390,28 +3390,28 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="99">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>14</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="100">
@@ -3452,28 +3452,28 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>3.671173135269061</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="101">
@@ -3483,28 +3483,28 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="102">
@@ -3514,28 +3514,28 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="103">
@@ -3545,28 +3545,28 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="104">
@@ -3576,28 +3576,28 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>25</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="105">
@@ -3607,28 +3607,28 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="106">
@@ -3638,28 +3638,28 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="107">
@@ -3669,28 +3669,28 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>16</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="108">
@@ -3700,28 +3700,28 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="109">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="110">
@@ -3762,28 +3762,28 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>18</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="111">
@@ -3793,28 +3793,28 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="112">
@@ -3824,28 +3824,28 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="113">
@@ -3855,28 +3855,28 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="114">
@@ -3886,28 +3886,28 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>25</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="115">
@@ -3917,28 +3917,28 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="116">
@@ -3948,28 +3948,28 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D116" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H116" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I116" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="117">
@@ -3979,28 +3979,28 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="118">
@@ -4010,28 +4010,28 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="119">
@@ -4041,28 +4041,28 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="120">
@@ -4072,28 +4072,28 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D120" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H120" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E120" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G120" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I120" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="121">
@@ -4103,28 +4103,28 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>17</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="122">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="123">
@@ -4165,28 +4165,28 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="124">
@@ -4196,28 +4196,28 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="125">
@@ -4227,28 +4227,28 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>23</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="126">
@@ -4258,16 +4258,16 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>600</v>
@@ -4276,10 +4276,10 @@
         <v>1500</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="127">
@@ -4289,28 +4289,28 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="128">
@@ -4320,28 +4320,28 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="129">
@@ -4351,28 +4351,28 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>3.868449614496551</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="130">
@@ -4382,28 +4382,28 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="131">
@@ -4413,28 +4413,28 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>17</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="132">
@@ -4444,28 +4444,28 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>16</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="133">
@@ -4475,28 +4475,28 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="134">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>150</v>
@@ -4518,16 +4518,16 @@
         <v>22</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="135">
@@ -4537,28 +4537,28 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="136">
@@ -4568,28 +4568,28 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="137">
@@ -4599,28 +4599,28 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>16</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="138">
@@ -4630,28 +4630,28 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>18</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="139">
@@ -4661,28 +4661,28 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>3.866928302836293</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="140">
@@ -4692,28 +4692,28 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>3.81933358192896</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="141">
@@ -4723,28 +4723,28 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>25</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="142">
@@ -4754,28 +4754,28 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="143">
@@ -4785,28 +4785,28 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="144">
@@ -4816,28 +4816,28 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="145">
@@ -4847,28 +4847,28 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="146">
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>600</v>
@@ -4896,10 +4896,10 @@
         <v>1500</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="147">
@@ -4912,25 +4912,25 @@
         <v>20</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="148">
@@ -4940,28 +4940,28 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="149">
@@ -4971,16 +4971,16 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>600</v>
@@ -4989,10 +4989,10 @@
         <v>1500</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="150">
@@ -5002,28 +5002,28 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>17</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="151">
@@ -5033,28 +5033,28 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E151" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H151" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F151" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="G151" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H151" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I151" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="152">
@@ -5064,28 +5064,28 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>18</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="153">
@@ -5095,28 +5095,28 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="154">
@@ -5126,28 +5126,28 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="155">
@@ -5157,28 +5157,28 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="156">
@@ -5188,28 +5188,28 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="157">
@@ -5222,25 +5222,25 @@
         <v>10</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="158">
@@ -5250,28 +5250,28 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="159">
@@ -5281,28 +5281,28 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>25</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>3.808732950696955</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="160">
@@ -5312,28 +5312,28 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>3.746787464374973</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="161">
@@ -5343,28 +5343,28 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>23</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>3.746787464374973</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="162">
@@ -5374,28 +5374,28 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D162" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E162" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F162" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>3.744830987350805</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="163">
@@ -5405,28 +5405,28 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>23</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>3.744830987350805</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="164">
@@ -5436,28 +5436,28 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>3.740093622518279</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="165">
@@ -5467,28 +5467,28 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>3.740093622518279</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="166">
@@ -5498,28 +5498,28 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="167">
@@ -5529,28 +5529,28 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="168">
@@ -5560,28 +5560,28 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>18</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="169">
@@ -5591,28 +5591,28 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="170">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="171">
@@ -5653,28 +5653,28 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="172">
@@ -5684,28 +5684,28 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D172" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H172" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E172" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="F172" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G172" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H172" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I172" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="173">
@@ -5715,28 +5715,28 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="174">
@@ -5746,28 +5746,28 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="175">
@@ -5777,28 +5777,28 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="176">
@@ -5808,28 +5808,28 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="177">
@@ -5839,28 +5839,28 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="178">
@@ -5870,28 +5870,28 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="179">
@@ -5901,28 +5901,28 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>17</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="180">
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="181">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="182">
@@ -5994,28 +5994,28 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="183">
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="184">
@@ -6056,28 +6056,28 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="185">
@@ -6087,16 +6087,16 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>600</v>
@@ -6105,10 +6105,10 @@
         <v>1500</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="186">
@@ -6118,28 +6118,28 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>14</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="187">
@@ -6149,16 +6149,16 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>600</v>
@@ -6167,10 +6167,10 @@
         <v>1500</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="188">
@@ -6180,28 +6180,28 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="189">
@@ -6211,28 +6211,28 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="190">
@@ -6242,28 +6242,28 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="191">
@@ -6273,28 +6273,28 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>10</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="192">
@@ -6304,28 +6304,28 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>14</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="193">
@@ -6335,28 +6335,28 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E193" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H193" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F193" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G193" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H193" s="0" t="n">
-        <v>2.709105823576011</v>
-      </c>
       <c r="I193" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="194">
@@ -6366,28 +6366,28 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="195">
@@ -6397,10 +6397,10 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>10</v>
@@ -6409,16 +6409,16 @@
         <v>22</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>21</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="196">
@@ -6428,28 +6428,28 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="197">
@@ -6459,28 +6459,28 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="198">
@@ -6490,28 +6490,28 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>11</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="199">
@@ -6521,28 +6521,28 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E199" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E199" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F199" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>19</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="200">
@@ -6552,28 +6552,28 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>2.709105823576011</v>
+        <v>24</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>3.722700779136363</v>
+        <v>3.807996335498952</v>
       </c>
     </row>
     <row r="201">

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>24</v>
@@ -414,22 +414,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>24</v>
@@ -445,22 +445,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>23</v>
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>23</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>23</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>23</v>
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>23</v>
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>23</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>23</v>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
@@ -693,22 +693,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>25</v>
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>25</v>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>25</v>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>25</v>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>25</v>
@@ -879,22 +879,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>25</v>
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>25</v>
@@ -944,19 +944,19 @@
         <v>50</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>25</v>
@@ -975,19 +975,19 @@
         <v>50</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>25</v>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405481355313177</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>25</v>
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>25</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>25</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>25</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>25</v>
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>25</v>
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>25</v>
@@ -1220,22 +1220,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>25</v>
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>25</v>
@@ -1282,22 +1282,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>25</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>130</v>
@@ -1322,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>25</v>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>25</v>
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>25</v>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>25</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>23</v>
@@ -1468,22 +1468,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>23</v>
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>25</v>
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>25</v>
@@ -1561,22 +1561,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -1592,22 +1592,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>23</v>
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>23</v>
@@ -1654,22 +1654,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>23</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>23</v>
@@ -1716,22 +1716,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>23</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>23</v>
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>23</v>
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>23</v>
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>23</v>
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.405296512959757</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>23</v>
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>23</v>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>23</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>23</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>23</v>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>23</v>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>23</v>
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>23</v>
@@ -2119,22 +2119,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>23</v>
@@ -2150,22 +2150,22 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>23</v>
@@ -2243,22 +2243,22 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>23</v>
@@ -2274,22 +2274,22 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>23</v>
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>23</v>
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>23</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>23</v>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>130</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>15</v>
@@ -2410,10 +2410,10 @@
         <v>17</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>25</v>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>11</v>
@@ -2441,10 +2441,10 @@
         <v>25</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>25</v>
@@ -2460,22 +2460,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>25</v>
@@ -2491,22 +2491,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>25</v>
@@ -2522,22 +2522,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>25</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>25</v>
@@ -2584,22 +2584,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>130</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>25</v>
@@ -2615,22 +2615,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>25</v>
@@ -2646,22 +2646,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>25</v>
@@ -2677,22 +2677,22 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>25</v>
@@ -2708,22 +2708,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>25</v>
@@ -2770,22 +2770,22 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>25</v>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>25</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>25</v>
@@ -2863,22 +2863,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>25</v>
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.40294750153562</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>25</v>
@@ -2925,22 +2925,22 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>25</v>
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>25</v>
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>25</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>25</v>
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>25</v>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>25</v>
@@ -3111,22 +3111,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>25</v>
@@ -3142,22 +3142,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>25</v>
@@ -3173,22 +3173,22 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>25</v>
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.402103096601103</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>25</v>
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>25</v>
@@ -3266,22 +3266,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>25</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>25</v>
@@ -3328,22 +3328,22 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>25</v>
@@ -3362,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>25</v>
@@ -3390,22 +3390,22 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>25</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>25</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>25</v>
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C101" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D101" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>25</v>
@@ -3514,22 +3514,22 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>25</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>25</v>
@@ -3576,22 +3576,22 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>25</v>
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>25</v>
@@ -3638,22 +3638,22 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>23</v>
@@ -3669,22 +3669,22 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>23</v>
@@ -3700,22 +3700,22 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>23</v>
@@ -3731,22 +3731,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>23</v>
@@ -3762,22 +3762,22 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.398871638367719</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>23</v>
@@ -3793,22 +3793,22 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>23</v>
@@ -3824,22 +3824,22 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>23</v>
@@ -3855,22 +3855,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>23</v>
@@ -3886,22 +3886,22 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>23</v>
@@ -3917,22 +3917,22 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>23</v>
@@ -3948,22 +3948,22 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>23</v>
@@ -3979,22 +3979,22 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>23</v>
@@ -4010,22 +4010,22 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>23</v>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>23</v>
@@ -4072,22 +4072,22 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>23</v>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>23</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>23</v>
@@ -4165,22 +4165,22 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>23</v>
@@ -4196,22 +4196,22 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>23</v>
@@ -4227,22 +4227,22 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>23</v>
@@ -4258,22 +4258,22 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>23</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E127" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E127" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F127" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>23</v>
@@ -4320,22 +4320,22 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>23</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.393767742471923</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>23</v>
@@ -4382,22 +4382,22 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>23</v>
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>23</v>
@@ -4444,22 +4444,22 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>23</v>
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>23</v>
@@ -4506,22 +4506,22 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>23</v>
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>23</v>
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>23</v>
@@ -4599,22 +4599,22 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>23</v>
@@ -4630,22 +4630,22 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>23</v>
@@ -4661,22 +4661,22 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>23</v>
@@ -4692,22 +4692,22 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>23</v>
@@ -4723,22 +4723,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>23</v>
@@ -4754,22 +4754,22 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>23</v>
@@ -4785,22 +4785,22 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>23</v>
@@ -4816,22 +4816,22 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>23</v>
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>18</v>
@@ -4859,10 +4859,10 @@
         <v>24</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>23</v>
@@ -4878,22 +4878,22 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>23</v>
@@ -4909,22 +4909,22 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>23</v>
@@ -4940,22 +4940,22 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>23</v>
@@ -4971,22 +4971,22 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>23</v>
@@ -5002,22 +5002,22 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>23</v>
@@ -5033,22 +5033,22 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>23</v>
@@ -5067,19 +5067,19 @@
         <v>30</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>23</v>
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>23</v>
@@ -5126,22 +5126,22 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>23</v>
@@ -5157,22 +5157,22 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>23</v>
@@ -5188,22 +5188,22 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>23</v>
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>23</v>
@@ -5250,22 +5250,22 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>23</v>
@@ -5281,22 +5281,22 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>23</v>
@@ -5312,22 +5312,22 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>23</v>
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>23</v>
@@ -5377,19 +5377,19 @@
         <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>23</v>
@@ -5408,19 +5408,19 @@
         <v>30</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>23</v>
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>23</v>
@@ -5467,22 +5467,22 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>23</v>
@@ -5498,22 +5498,22 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>23</v>
@@ -5532,19 +5532,19 @@
         <v>30</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>23</v>
@@ -5560,22 +5560,22 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>23</v>
@@ -5591,22 +5591,22 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>23</v>
@@ -5622,22 +5622,22 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>23</v>
@@ -5653,22 +5653,22 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>23</v>
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>23</v>
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>18</v>
@@ -5727,10 +5727,10 @@
         <v>24</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.391955467000994</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>23</v>
@@ -5746,22 +5746,22 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.382699695325957</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>23</v>
@@ -5777,22 +5777,22 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.382699695325957</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>23</v>
@@ -5808,22 +5808,22 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.382699695325957</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>23</v>
@@ -5842,19 +5842,19 @@
         <v>40</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.382699695325957</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>23</v>
@@ -5870,22 +5870,22 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.379903972715947</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>23</v>
@@ -5901,22 +5901,22 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.379903972715947</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>23</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.377732689889791</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>23</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.377732689889791</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>23</v>
@@ -5994,22 +5994,22 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.375070736414984</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>23</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.368248113612181</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>23</v>
@@ -6056,22 +6056,22 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.368248113612181</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>23</v>
@@ -6087,22 +6087,22 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>23</v>
@@ -6118,22 +6118,22 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>23</v>
@@ -6149,22 +6149,22 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>23</v>
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>23</v>
@@ -6211,22 +6211,22 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>23</v>
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367671120022443</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>23</v>
@@ -6273,22 +6273,22 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>23</v>
@@ -6304,22 +6304,22 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>23</v>
@@ -6335,22 +6335,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>23</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>23</v>
@@ -6397,22 +6397,22 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C195" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C195" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D195" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>23</v>
@@ -6428,22 +6428,22 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>23</v>
@@ -6459,22 +6459,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>23</v>
@@ -6490,22 +6490,22 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>23</v>
@@ -6521,22 +6521,22 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>23</v>
@@ -6552,22 +6552,22 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>4.162253958971945</v>
+        <v>5.367196613800128</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>23</v>

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.062100281656442</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>24</v>
@@ -414,22 +414,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.062100281656442</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>24</v>
@@ -445,22 +445,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.062100281656442</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>23</v>
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.052743815346301</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>23</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.052743815346301</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>23</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.052743815346301</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>23</v>
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.052743815346301</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>23</v>
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.052743815346301</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>23</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>23</v>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
@@ -693,22 +693,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>25</v>
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>25</v>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>25</v>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>25</v>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>25</v>
@@ -879,22 +879,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>25</v>
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>25</v>
@@ -941,22 +941,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>25</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>25</v>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>5.405481355313177</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>25</v>
@@ -1037,19 +1037,19 @@
         <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046870598221042</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>25</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>25</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>25</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>25</v>
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>25</v>
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>25</v>
@@ -1223,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>25</v>
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>25</v>
@@ -1282,22 +1282,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>25</v>
@@ -1316,19 +1316,19 @@
         <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.046163687462438</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>25</v>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>25</v>
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>25</v>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>25</v>
@@ -1440,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>23</v>
@@ -1468,22 +1468,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>23</v>
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>25</v>
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.040166398515845</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>25</v>
@@ -1561,22 +1561,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.031306228768326</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -1592,22 +1592,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.031306228768326</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>23</v>
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.031306228768326</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>23</v>
@@ -1654,22 +1654,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.026245694946316</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>23</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.026245694946316</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>23</v>
@@ -1719,19 +1719,19 @@
         <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.026245694946316</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>23</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.026245694946316</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>23</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>10</v>
@@ -1793,7 +1793,7 @@
         <v>1500</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>23</v>
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>23</v>
@@ -1843,19 +1843,19 @@
         <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>23</v>
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>17</v>
@@ -1886,7 +1886,7 @@
         <v>1500</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>5.405296512959757</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>23</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>140</v>
@@ -1911,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>23</v>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>23</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>23</v>
@@ -1998,19 +1998,19 @@
         <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>23</v>
@@ -2029,19 +2029,19 @@
         <v>40</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>23</v>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>23</v>
@@ -2094,16 +2094,16 @@
         <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>23</v>
@@ -2122,19 +2122,19 @@
         <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>23</v>
@@ -2156,16 +2156,16 @@
         <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>23</v>
@@ -2246,19 +2246,19 @@
         <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>23</v>
@@ -2277,19 +2277,19 @@
         <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>23</v>
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>23</v>
@@ -2336,22 +2336,22 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>23</v>
@@ -2370,19 +2370,19 @@
         <v>40</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>23</v>
@@ -2401,19 +2401,19 @@
         <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>25</v>
@@ -2429,22 +2429,22 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>25</v>
@@ -2460,22 +2460,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>25</v>
@@ -2491,22 +2491,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>25</v>
@@ -2522,22 +2522,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>25</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>25</v>
@@ -2584,22 +2584,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>25</v>
@@ -2615,22 +2615,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>25</v>
@@ -2646,22 +2646,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>25</v>
@@ -2677,22 +2677,22 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>25</v>
@@ -2708,22 +2708,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
@@ -2742,19 +2742,19 @@
         <v>40</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>25</v>
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>11</v>
@@ -2782,10 +2782,10 @@
         <v>17</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.024176155613081</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>25</v>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.023756151054703</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>25</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.023756151054703</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>25</v>
@@ -2863,22 +2863,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>25</v>
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>5.40294750153562</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>25</v>
@@ -2928,19 +2928,19 @@
         <v>30</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>25</v>
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>25</v>
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>25</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>25</v>
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>25</v>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>25</v>
@@ -3111,22 +3111,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>25</v>
@@ -3142,22 +3142,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>25</v>
@@ -3176,19 +3176,19 @@
         <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>3.022910652367598</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>25</v>
@@ -3207,19 +3207,19 @@
         <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D92" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E92" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E92" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F92" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>5.402103096601103</v>
+        <v>2.998615828613439</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>25</v>
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.997348492377409</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>25</v>
@@ -3266,22 +3266,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.997348492377409</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>25</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.997348492377409</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>25</v>
@@ -3328,22 +3328,22 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.997348492377409</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>25</v>
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.987483373475761</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>25</v>
@@ -3390,22 +3390,22 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.985092040199924</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>25</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>100</v>
@@ -3430,13 +3430,13 @@
         <v>17</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.985092040199924</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>25</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>2.985092040199924</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>25</v>
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>25</v>
@@ -3514,22 +3514,22 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>25</v>
@@ -3545,22 +3545,22 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>25</v>
@@ -3576,22 +3576,22 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>25</v>
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>25</v>
@@ -3638,22 +3638,22 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>23</v>
@@ -3669,22 +3669,22 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>23</v>
@@ -3700,22 +3700,22 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>23</v>
@@ -3731,22 +3731,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>23</v>
@@ -3762,22 +3762,22 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>5.398871638367719</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>23</v>
@@ -3796,19 +3796,19 @@
         <v>20</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>23</v>
@@ -3827,19 +3827,19 @@
         <v>20</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>23</v>
@@ -3855,22 +3855,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>23</v>
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>19</v>
@@ -3901,7 +3901,7 @@
         <v>1300</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>23</v>
@@ -3917,22 +3917,22 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>23</v>
@@ -3948,22 +3948,22 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>23</v>
@@ -3982,19 +3982,19 @@
         <v>20</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>23</v>
@@ -4010,22 +4010,22 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>23</v>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>23</v>
@@ -4075,10 +4075,10 @@
         <v>30</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>22</v>
@@ -4087,7 +4087,7 @@
         <v>1300</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>23</v>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>23</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>23</v>
@@ -4168,19 +4168,19 @@
         <v>20</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>23</v>
@@ -4196,22 +4196,22 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>23</v>
@@ -4227,22 +4227,22 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>23</v>
@@ -4258,22 +4258,22 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>23</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>23</v>
@@ -4323,19 +4323,19 @@
         <v>20</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>23</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>5.393767742471923</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>23</v>
@@ -4385,19 +4385,19 @@
         <v>30</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>23</v>
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>23</v>
@@ -4444,22 +4444,22 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D132" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E132" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E132" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F132" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>23</v>
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>23</v>
@@ -4506,22 +4506,22 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>23</v>
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>23</v>
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451594895889883</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>23</v>
@@ -4599,22 +4599,22 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>23</v>
@@ -4630,22 +4630,22 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>23</v>
@@ -4661,22 +4661,22 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>23</v>
@@ -4692,22 +4692,22 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>23</v>
@@ -4726,19 +4726,19 @@
         <v>30</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>23</v>
@@ -4757,19 +4757,19 @@
         <v>30</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>23</v>
@@ -4785,22 +4785,22 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>23</v>
@@ -4819,19 +4819,19 @@
         <v>30</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>23</v>
@@ -4850,19 +4850,19 @@
         <v>30</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.451454346123302</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>23</v>
@@ -4881,19 +4881,19 @@
         <v>30</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.449481242061047</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>23</v>
@@ -4909,22 +4909,22 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>23</v>
@@ -4940,22 +4940,22 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>23</v>
@@ -4971,22 +4971,22 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>23</v>
@@ -5002,22 +5002,22 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>23</v>
@@ -5033,22 +5033,22 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>23</v>
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>23</v>
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>23</v>
@@ -5126,22 +5126,22 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>23</v>
@@ -5157,22 +5157,22 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>23</v>
@@ -5188,22 +5188,22 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.440461959039696</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>23</v>
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.434409162115237</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>23</v>
@@ -5253,19 +5253,19 @@
         <v>20</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.404803577500018</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>23</v>
@@ -5281,22 +5281,22 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>23</v>
@@ -5315,19 +5315,19 @@
         <v>30</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>23</v>
@@ -5349,16 +5349,16 @@
         <v>130</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>23</v>
@@ -5377,19 +5377,19 @@
         <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>23</v>
@@ -5405,22 +5405,22 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>23</v>
@@ -5439,19 +5439,19 @@
         <v>30</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>23</v>
@@ -5467,22 +5467,22 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D165" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E165" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E165" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F165" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>23</v>
@@ -5498,22 +5498,22 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>23</v>
@@ -5532,19 +5532,19 @@
         <v>30</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>23</v>
@@ -5560,22 +5560,22 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D168" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E168" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E168" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F168" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>23</v>
@@ -5594,19 +5594,19 @@
         <v>30</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>23</v>
@@ -5622,22 +5622,22 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>23</v>
@@ -5653,22 +5653,22 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>23</v>
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>23</v>
@@ -5715,22 +5715,22 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>5.391955467000994</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>23</v>
@@ -5746,22 +5746,22 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>5.382699695325957</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>23</v>
@@ -5777,22 +5777,22 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>5.382699695325957</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>23</v>
@@ -5808,22 +5808,22 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>5.382699695325957</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>23</v>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>5.382699695325957</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>23</v>
@@ -5870,22 +5870,22 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>5.379903972715947</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>23</v>
@@ -5901,22 +5901,22 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>5.379903972715947</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>23</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>5.377732689889791</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>23</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>5.377732689889791</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>23</v>
@@ -5994,22 +5994,22 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5.375070736414984</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>23</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>5.368248113612181</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>23</v>
@@ -6056,22 +6056,22 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>5.368248113612181</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>23</v>
@@ -6087,22 +6087,22 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>23</v>
@@ -6121,19 +6121,19 @@
         <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>23</v>
@@ -6149,22 +6149,22 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>23</v>
@@ -6183,19 +6183,19 @@
         <v>20</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>23</v>
@@ -6211,22 +6211,22 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>23</v>
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>5.367671120022443</v>
+        <v>5.400061221392386</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>23</v>
@@ -6273,22 +6273,22 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>23</v>
@@ -6304,22 +6304,22 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>23</v>
@@ -6335,22 +6335,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>23</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>23</v>
@@ -6400,19 +6400,19 @@
         <v>20</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>23</v>
@@ -6428,22 +6428,22 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.396484591719897</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>23</v>
@@ -6459,22 +6459,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.393767562372032</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>23</v>
@@ -6490,22 +6490,22 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.393767562372032</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>23</v>
@@ -6524,19 +6524,19 @@
         <v>30</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.390886010547911</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>23</v>
@@ -6555,19 +6555,19 @@
         <v>30</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>5.367196613800128</v>
+        <v>5.380675442217632</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>23</v>

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>3.062100281656442</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>24</v>
@@ -414,22 +414,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3.062100281656442</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>24</v>
@@ -445,22 +445,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3.062100281656442</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>23</v>
@@ -479,19 +479,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3.052743815346301</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>23</v>
@@ -510,19 +510,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3.052743815346301</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>23</v>
@@ -541,19 +541,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3.052743815346301</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>23</v>
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3.052743815346301</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>23</v>
@@ -603,19 +603,19 @@
         <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3.052743815346301</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>23</v>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
@@ -693,22 +693,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.565772430216287</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>25</v>
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>25</v>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>25</v>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>25</v>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>25</v>
@@ -879,22 +879,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>25</v>
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.551236483784217</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>25</v>
@@ -941,22 +941,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.453456432713239</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>25</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.453456432713239</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>25</v>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.453456432713239</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>25</v>
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>3.046870598221042</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>25</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>25</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>25</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>25</v>
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>25</v>
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>25</v>
@@ -1220,22 +1220,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>25</v>
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>25</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>25</v>
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>3.046163687462438</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>25</v>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406895567834991</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>25</v>
@@ -1378,19 +1378,19 @@
         <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>25</v>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F34" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>25</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>23</v>
@@ -1471,19 +1471,19 @@
         <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>23</v>
@@ -1502,19 +1502,19 @@
         <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F37" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>25</v>
@@ -1533,19 +1533,19 @@
         <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F38" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3.040166398515845</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>25</v>
@@ -1561,22 +1561,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>3.031306228768326</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -1592,22 +1592,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>3.031306228768326</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>23</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>16</v>
@@ -1635,10 +1635,10 @@
         <v>18</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>3.031306228768326</v>
+        <v>4.406340273438612</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>23</v>
@@ -1654,22 +1654,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>3.026245694946316</v>
+        <v>4.394293087043615</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>23</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>3.026245694946316</v>
+        <v>4.394293087043615</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>23</v>
@@ -1716,22 +1716,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>3.026245694946316</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>23</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>3.026245694946316</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>23</v>
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>23</v>
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>23</v>
@@ -1843,19 +1843,19 @@
         <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>23</v>
@@ -1874,19 +1874,19 @@
         <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>23</v>
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>23</v>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>23</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>23</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>23</v>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>23</v>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>23</v>
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>23</v>
@@ -2119,22 +2119,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.367391170690491</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>23</v>
@@ -2150,22 +2150,22 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.339759405085584</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.339759405085584</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.339759405085584</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>23</v>
@@ -2246,19 +2246,19 @@
         <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>23</v>
@@ -2277,19 +2277,19 @@
         <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>23</v>
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>23</v>
@@ -2336,22 +2336,22 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>23</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>23</v>
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.297865305082871</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>25</v>
@@ -2429,22 +2429,22 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>25</v>
@@ -2460,22 +2460,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>25</v>
@@ -2491,22 +2491,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>25</v>
@@ -2522,22 +2522,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>25</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C71" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D71" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>25</v>
@@ -2584,22 +2584,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D72" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>25</v>
@@ -2615,22 +2615,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C73" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D73" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>25</v>
@@ -2646,22 +2646,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.282948038793434</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>25</v>
@@ -2683,16 +2683,16 @@
         <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.273311999110483</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>25</v>
@@ -2708,22 +2708,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.250177629479004</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.200376451755242</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>25</v>
@@ -2770,22 +2770,22 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3.024176155613081</v>
+        <v>4.200376451755242</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>25</v>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>3.023756151054703</v>
+        <v>4.200376451755242</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>25</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D80" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3.023756151054703</v>
+        <v>4.167302091754372</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>25</v>
@@ -2866,19 +2866,19 @@
         <v>10</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.167302091754372</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>25</v>
@@ -2897,19 +2897,19 @@
         <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.167302091754372</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>25</v>
@@ -2925,22 +2925,22 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.077105179107916</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>25</v>
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.077105179107916</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>25</v>
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.077105179107916</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>25</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.077105179107916</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>25</v>
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.077105179107916</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>25</v>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>25</v>
@@ -3111,22 +3111,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>25</v>
@@ -3142,22 +3142,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>25</v>
@@ -3173,22 +3173,22 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>3.022910652367598</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>25</v>
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>2.998615828613439</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>25</v>
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2.997348492377409</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>25</v>
@@ -3266,22 +3266,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>2.997348492377409</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>25</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>2.997348492377409</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>25</v>
@@ -3328,22 +3328,22 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>2.997348492377409</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>25</v>
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>2.987483373475761</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>25</v>
@@ -3390,22 +3390,22 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>2.985092040199924</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>25</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>2.985092040199924</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>25</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>2.985092040199924</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>25</v>
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>25</v>
@@ -3514,22 +3514,22 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>25</v>
@@ -3545,22 +3545,22 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>25</v>
@@ -3576,22 +3576,22 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>25</v>
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>25</v>
@@ -3638,22 +3638,22 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>23</v>
@@ -3669,22 +3669,22 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>23</v>
@@ -3700,22 +3700,22 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>23</v>
@@ -3731,22 +3731,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>23</v>
@@ -3762,22 +3762,22 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>23</v>
@@ -3793,22 +3793,22 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>23</v>
@@ -3824,22 +3824,22 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>23</v>
@@ -3855,22 +3855,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>23</v>
@@ -3886,22 +3886,22 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>23</v>
@@ -3917,22 +3917,22 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>23</v>
@@ -3948,22 +3948,22 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>23</v>
@@ -3979,22 +3979,22 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>23</v>
@@ -4010,22 +4010,22 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>23</v>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>23</v>
@@ -4072,22 +4072,22 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>23</v>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>23</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>23</v>
@@ -4165,22 +4165,22 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>23</v>
@@ -4196,22 +4196,22 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.076519105795392</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>23</v>
@@ -4227,22 +4227,22 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.07539866775205</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>23</v>
@@ -4258,22 +4258,22 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.07539866775205</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>23</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D127" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E127" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E127" s="0" t="n">
-        <v>19</v>
-      </c>
       <c r="F127" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.07539866775205</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>23</v>
@@ -4320,22 +4320,22 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.044228768667542</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>23</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.033921626782422</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>23</v>
@@ -4382,22 +4382,22 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.033112375739605</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>23</v>
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.015758898286282</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>23</v>
@@ -4444,22 +4444,22 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>4.015758898286282</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>23</v>
@@ -4478,19 +4478,19 @@
         <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>3.942052588767954</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>23</v>
@@ -4506,22 +4506,22 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>3.932920937932169</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>23</v>
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>3.927023107312604</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>23</v>
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>5.451594895889883</v>
+        <v>3.927023107312604</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>23</v>
@@ -4599,22 +4599,22 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.927023107312604</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>23</v>
@@ -4630,22 +4630,22 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.926675559189631</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>23</v>
@@ -4664,19 +4664,19 @@
         <v>10</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.926675559189631</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>23</v>
@@ -4692,22 +4692,22 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.890958459062487</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>23</v>
@@ -4723,22 +4723,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.890958459062487</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>23</v>
@@ -4754,22 +4754,22 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.890958459062487</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>23</v>
@@ -4785,22 +4785,22 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.86387139245796</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>23</v>
@@ -4816,22 +4816,22 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.86387139245796</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>23</v>
@@ -4847,22 +4847,22 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>5.451454346123302</v>
+        <v>3.862837440974712</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>23</v>
@@ -4878,22 +4878,22 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>5.449481242061047</v>
+        <v>3.862837440974712</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>23</v>
@@ -4912,19 +4912,19 @@
         <v>0</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.840411348535358</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>23</v>
@@ -4940,22 +4940,22 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.827786513680107</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>23</v>
@@ -4971,22 +4971,22 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.827786513680107</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>23</v>
@@ -5002,22 +5002,22 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.827786513680107</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>23</v>
@@ -5033,22 +5033,22 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.789371774042567</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>23</v>
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.755169486857267</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>23</v>
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.753078772819645</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>23</v>
@@ -5126,22 +5126,22 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.753078772819645</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>23</v>
@@ -5157,22 +5157,22 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.752307601463318</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>23</v>
@@ -5188,22 +5188,22 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>5.440461959039696</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>23</v>
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>5.434409162115237</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>23</v>
@@ -5250,22 +5250,22 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>5.404803577500018</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>23</v>
@@ -5281,22 +5281,22 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>23</v>
@@ -5312,22 +5312,22 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>23</v>
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.738905146521249</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>23</v>
@@ -5374,22 +5374,22 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.677809574299765</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>23</v>
@@ -5405,22 +5405,22 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.677809574299765</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>23</v>
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.677809574299765</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>23</v>
@@ -5467,22 +5467,22 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.653939045715267</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>23</v>
@@ -5498,22 +5498,22 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.653939045715267</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>23</v>
@@ -5529,22 +5529,22 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.653939045715267</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>23</v>
@@ -5560,22 +5560,22 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D168" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E168" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E168" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="F168" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.653939045715267</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>23</v>
@@ -5591,22 +5591,22 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>23</v>
@@ -5625,19 +5625,19 @@
         <v>20</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>23</v>
@@ -5653,22 +5653,22 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>23</v>
@@ -5687,19 +5687,19 @@
         <v>20</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>23</v>
@@ -5718,19 +5718,19 @@
         <v>20</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>23</v>
@@ -5749,19 +5749,19 @@
         <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.55461786725119</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>23</v>
@@ -5777,22 +5777,22 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.322422715803464</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>23</v>
@@ -5808,22 +5808,22 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.322422715803464</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>23</v>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.322422715803464</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>23</v>
@@ -5870,22 +5870,22 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.322422715803464</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>23</v>
@@ -5901,22 +5901,22 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>3.094127027706797</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>23</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.713735910568761</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>23</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.713735910568761</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>23</v>
@@ -5994,22 +5994,22 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.713735910568761</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>23</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.598649425867307</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>23</v>
@@ -6059,19 +6059,19 @@
         <v>10</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.598649425867307</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>23</v>
@@ -6090,19 +6090,19 @@
         <v>10</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.598649425867307</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>23</v>
@@ -6118,22 +6118,22 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.598649425867307</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>23</v>
@@ -6149,22 +6149,22 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.461525452264085</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>23</v>
@@ -6183,19 +6183,19 @@
         <v>20</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.461525452264085</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>23</v>
@@ -6211,22 +6211,22 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.461525452264085</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>23</v>
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>5.400061221392386</v>
+        <v>2.461525452264085</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>23</v>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>100</v>
@@ -6282,13 +6282,13 @@
         <v>16</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>2.263744302888564</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>23</v>
@@ -6307,19 +6307,19 @@
         <v>20</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>23</v>
@@ -6335,22 +6335,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>23</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>23</v>
@@ -6400,19 +6400,19 @@
         <v>20</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>23</v>
@@ -6428,22 +6428,22 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>5.396484591719897</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>23</v>
@@ -6459,22 +6459,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>5.393767562372032</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>23</v>
@@ -6490,22 +6490,22 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>5.393767562372032</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>23</v>
@@ -6521,22 +6521,22 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D199" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E199" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E199" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F199" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>5.390886010547911</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>23</v>
@@ -6552,22 +6552,22 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>5.380675442217632</v>
+        <v>1.947171832529934</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>23</v>

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -386,19 +386,19 @@
         <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>24</v>
@@ -417,19 +417,19 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>24</v>
@@ -445,22 +445,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>23</v>
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>23</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>23</v>
@@ -541,19 +541,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>23</v>
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>23</v>
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>23</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>23</v>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
@@ -693,22 +693,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4.565772430216287</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>25</v>
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>25</v>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>25</v>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>25</v>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>25</v>
@@ -879,22 +879,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>25</v>
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>4.551236483784217</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>25</v>
@@ -944,19 +944,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>4.453456432713239</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>25</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>4.453456432713239</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>25</v>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4.453456432713239</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>25</v>
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>25</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>25</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>25</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>25</v>
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>25</v>
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>25</v>
@@ -1220,22 +1220,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>25</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>25</v>
@@ -1282,22 +1282,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>25</v>
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>25</v>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>4.406895567834991</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>25</v>
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>25</v>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>25</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>23</v>
@@ -1468,22 +1468,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>23</v>
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>25</v>
@@ -1533,19 +1533,19 @@
         <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>25</v>
@@ -1561,22 +1561,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -1592,22 +1592,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>23</v>
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D41" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="F41" s="0" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>4.406340273438612</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>23</v>
@@ -1654,22 +1654,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4.394293087043615</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>23</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4.394293087043615</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>23</v>
@@ -1716,22 +1716,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>23</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>23</v>
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>23</v>
@@ -1812,19 +1812,19 @@
         <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>23</v>
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>23</v>
@@ -1874,19 +1874,19 @@
         <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>23</v>
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>23</v>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>23</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>23</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>23</v>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>23</v>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>23</v>
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>23</v>
@@ -2119,22 +2119,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>4.367391170690491</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>23</v>
@@ -2150,22 +2150,22 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>4.339759405085584</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>23</v>
@@ -2184,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>4.339759405085584</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4.339759405085584</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>23</v>
@@ -2243,22 +2243,22 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>23</v>
@@ -2274,22 +2274,22 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>23</v>
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>23</v>
@@ -2336,22 +2336,22 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.165743100826401</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>23</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.156750201741148</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>23</v>
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4.297865305082871</v>
+        <v>4.156750201741148</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>25</v>
@@ -2429,22 +2429,22 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>4.156750201741148</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>25</v>
@@ -2460,22 +2460,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>4.027954501622491</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>25</v>
@@ -2491,22 +2491,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>4.027954501622491</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>25</v>
@@ -2522,22 +2522,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>3.800785233725364</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>25</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>2.596839248189191</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>25</v>
@@ -2590,16 +2590,16 @@
         <v>40</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>2.079172234583665</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>25</v>
@@ -2621,16 +2621,16 @@
         <v>40</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>2.079172234583665</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>25</v>
@@ -2646,22 +2646,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4.282948038793434</v>
+        <v>1.77944554696817</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>25</v>
@@ -2677,22 +2677,22 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>4.273311999110483</v>
+        <v>1.774623929036278</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>25</v>
@@ -2708,22 +2708,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C76" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D76" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>4.250177629479004</v>
+        <v>1.660418252900976</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>4.200376451755242</v>
+        <v>1.660418252900976</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>25</v>
@@ -2770,22 +2770,22 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>4.200376451755242</v>
+        <v>1.660418252900976</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>25</v>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4.200376451755242</v>
+        <v>1.660418252900976</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>25</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>4.167302091754372</v>
+        <v>1.660418252900976</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>25</v>
@@ -2863,22 +2863,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>4.167302091754372</v>
+        <v>1.59773049743122</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>25</v>
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4.167302091754372</v>
+        <v>1.59773049743122</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>25</v>
@@ -2925,22 +2925,22 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>4.077105179107916</v>
+        <v>1.59773049743122</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>25</v>
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C84" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C84" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D84" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>4.077105179107916</v>
+        <v>1.079479244531133</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>25</v>
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C85" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D85" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>4.077105179107916</v>
+        <v>1.079479244531133</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>25</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C86" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D86" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>4.077105179107916</v>
+        <v>1.079479244531133</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>25</v>
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C87" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D87" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4.077105179107916</v>
+        <v>1.079479244531133</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>25</v>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>1.079479244531133</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>25</v>
@@ -3111,22 +3111,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>25</v>
@@ -3142,22 +3142,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>25</v>
@@ -3173,22 +3173,22 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>25</v>
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>25</v>
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>25</v>
@@ -3266,22 +3266,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>25</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>25</v>
@@ -3328,22 +3328,22 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D96" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E96" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E96" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F96" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>25</v>
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E97" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E97" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="F97" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>25</v>
@@ -3390,22 +3390,22 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>25</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>25</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>0.9424528301886794</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>25</v>
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>25</v>
@@ -3514,22 +3514,22 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>25</v>
@@ -3545,13 +3545,13 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>16</v>
@@ -3560,7 +3560,7 @@
         <v>200</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>25</v>
@@ -3579,19 +3579,19 @@
         <v>80</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>25</v>
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>25</v>
@@ -3638,22 +3638,22 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
         <v>110</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>140</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>23</v>
@@ -3669,22 +3669,22 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>23</v>
@@ -3700,22 +3700,22 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>23</v>
@@ -3734,19 +3734,19 @@
         <v>0</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>23</v>
@@ -3762,22 +3762,22 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>23</v>
@@ -3793,22 +3793,22 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>23</v>
@@ -3824,22 +3824,22 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>23</v>
@@ -3855,22 +3855,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>23</v>
@@ -3886,22 +3886,22 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>23</v>
@@ -3917,22 +3917,22 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>23</v>
@@ -3948,22 +3948,22 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>23</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>120</v>
@@ -3991,10 +3991,10 @@
         <v>24</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>23</v>
@@ -4010,22 +4010,22 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>23</v>
@@ -4041,13 +4041,13 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>24</v>
@@ -4056,7 +4056,7 @@
         <v>200</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>23</v>
@@ -4072,22 +4072,22 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>23</v>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>23</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C122" s="0" t="n">
         <v>120</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>140</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>11</v>
@@ -4146,10 +4146,10 @@
         <v>16</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>23</v>
@@ -4165,22 +4165,22 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>23</v>
@@ -4196,22 +4196,22 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>4.076519105795392</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>23</v>
@@ -4227,22 +4227,22 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>4.07539866775205</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>23</v>
@@ -4258,22 +4258,22 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>4.07539866775205</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>23</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>4.07539866775205</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>23</v>
@@ -4320,22 +4320,22 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D128" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E128" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E128" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F128" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>4.044228768667542</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>23</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>4.033921626782422</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>23</v>
@@ -4382,22 +4382,22 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D130" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E130" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E130" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F130" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>4.033112375739605</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>23</v>
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>4.015758898286282</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>23</v>
@@ -4444,22 +4444,22 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>4.015758898286282</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>23</v>
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>3.942052588767954</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>23</v>
@@ -4506,22 +4506,22 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>3.932920937932169</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>23</v>
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>3.927023107312604</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>23</v>
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>3.927023107312604</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>23</v>
@@ -4599,22 +4599,22 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>3.927023107312604</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>23</v>
@@ -4630,22 +4630,22 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>3.926675559189631</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>23</v>
@@ -4661,22 +4661,22 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>3.926675559189631</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>23</v>
@@ -4692,22 +4692,22 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>3.890958459062487</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>23</v>
@@ -4723,22 +4723,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>3.890958459062487</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>23</v>
@@ -4754,22 +4754,22 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>3.890958459062487</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>23</v>
@@ -4788,19 +4788,19 @@
         <v>0</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D143" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E143" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E143" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F143" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>3.86387139245796</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>23</v>
@@ -4816,22 +4816,22 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D144" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E144" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E144" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F144" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>3.86387139245796</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>23</v>
@@ -4847,22 +4847,22 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>3.862837440974712</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>23</v>
@@ -4878,22 +4878,22 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>3.862837440974712</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>23</v>
@@ -4909,22 +4909,22 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D147" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E147" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E147" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="F147" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>3.840411348535358</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>23</v>
@@ -4940,22 +4940,22 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>3.827786513680107</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>23</v>
@@ -4971,22 +4971,22 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>3.827786513680107</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>23</v>
@@ -5002,22 +5002,22 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>3.827786513680107</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>23</v>
@@ -5033,22 +5033,22 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>3.789371774042567</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>23</v>
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>3.755169486857267</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>23</v>
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D153" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E153" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E153" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="F153" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>3.753078772819645</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>23</v>
@@ -5126,22 +5126,22 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>3.753078772819645</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>23</v>
@@ -5157,22 +5157,22 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>3.752307601463318</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>23</v>
@@ -5188,22 +5188,22 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>23</v>
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>23</v>
@@ -5250,22 +5250,22 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>23</v>
@@ -5281,22 +5281,22 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C159" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C159" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D159" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>23</v>
@@ -5312,22 +5312,22 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>23</v>
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>3.738905146521249</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>23</v>
@@ -5374,22 +5374,22 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>3.677809574299765</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>23</v>
@@ -5414,13 +5414,13 @@
         <v>11</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>3.677809574299765</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>23</v>
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>3.677809574299765</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>23</v>
@@ -5467,22 +5467,22 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>3.653939045715267</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>23</v>
@@ -5498,22 +5498,22 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>3.653939045715267</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>23</v>
@@ -5529,22 +5529,22 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>3.653939045715267</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>23</v>
@@ -5560,22 +5560,22 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>3.653939045715267</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>23</v>
@@ -5591,22 +5591,22 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>23</v>
@@ -5622,22 +5622,22 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>23</v>
@@ -5653,22 +5653,22 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>2.014766981165244</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>23</v>
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>1.952535946329547</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>23</v>
@@ -5715,22 +5715,22 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>1.952535946329547</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>23</v>
@@ -5746,22 +5746,22 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>3.55461786725119</v>
+        <v>1.935263075537206</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>23</v>
@@ -5777,22 +5777,22 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>3.322422715803464</v>
+        <v>1.935263075537206</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>23</v>
@@ -5808,22 +5808,22 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>3.322422715803464</v>
+        <v>1.935263075537206</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>23</v>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>3.322422715803464</v>
+        <v>1.39771356041513</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>23</v>
@@ -5870,22 +5870,22 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>3.322422715803464</v>
+        <v>1.283642447127709</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>23</v>
@@ -5901,22 +5901,22 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>3.094127027706797</v>
+        <v>1.214611183542454</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>23</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>2.713735910568761</v>
+        <v>1.214611183542454</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>23</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>2.713735910568761</v>
+        <v>1.214611183542454</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>23</v>
@@ -5994,22 +5994,22 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>2.713735910568761</v>
+        <v>1.214611183542454</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>23</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>21</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2.598649425867307</v>
+        <v>1.214611183542454</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>23</v>
@@ -6056,22 +6056,22 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2.598649425867307</v>
+        <v>1.148600751259814</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>23</v>
@@ -6090,10 +6090,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>21</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>2.598649425867307</v>
+        <v>1.1388925374282</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>23</v>
@@ -6121,10 +6121,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>21</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>2.598649425867307</v>
+        <v>1.1388925374282</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>23</v>
@@ -6149,22 +6149,22 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>2.461525452264085</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>23</v>
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>2.461525452264085</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>23</v>
@@ -6211,22 +6211,22 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>2.461525452264085</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>23</v>
@@ -6245,19 +6245,19 @@
         <v>20</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>2.461525452264085</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>23</v>
@@ -6273,22 +6273,22 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>2.263744302888564</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>23</v>
@@ -6307,19 +6307,19 @@
         <v>20</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>23</v>
@@ -6335,22 +6335,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>23</v>
@@ -6366,10 +6366,10 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>11</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>23</v>
@@ -6397,22 +6397,22 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>23</v>
@@ -6431,19 +6431,19 @@
         <v>20</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>23</v>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>19</v>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>23</v>
@@ -6493,19 +6493,19 @@
         <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>23</v>
@@ -6524,19 +6524,19 @@
         <v>20</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>23</v>
@@ -6552,22 +6552,22 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1.947171832529934</v>
+        <v>0.9424528301886792</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>23</v>

--- a/output/ship_rule.xlsx
+++ b/output/ship_rule.xlsx
@@ -383,25 +383,25 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>24</v>
+        <v>2.139685590774488</v>
       </c>
       <c r="I1" s="0" t="n">
         <v>3.799698333522191</v>
@@ -414,25 +414,25 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>24</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3.799698333522191</v>
@@ -445,25 +445,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3.791382961032388</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>20</v>
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3.791382961032388</v>
@@ -507,25 +507,25 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3.791382961032388</v>
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H6" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3.791184760624534</v>
@@ -569,25 +569,25 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3.791184760624534</v>
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3.791184760624534</v>
@@ -634,22 +634,22 @@
         <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H9" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3.791184760624534</v>
@@ -665,22 +665,22 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3.784467215122441</v>
@@ -693,25 +693,25 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3.784467215122441</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H12" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3.784467215122441</v>
@@ -755,25 +755,25 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>19</v>
-      </c>
       <c r="F13" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3.784467215122441</v>
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H14" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3.784467215122441</v>
@@ -817,25 +817,25 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3.784467215122441</v>
@@ -848,25 +848,25 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3.784467215122441</v>
@@ -879,25 +879,25 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D17" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3.784467215122441</v>
@@ -910,25 +910,25 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H18" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3.784467215122441</v>
@@ -941,25 +941,25 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3.784467215122441</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>24</v>
@@ -987,10 +987,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1003,25 +1003,25 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1034,25 +1034,25 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1065,25 +1065,25 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1096,25 +1096,25 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1127,25 +1127,25 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1158,25 +1158,25 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1189,25 +1189,25 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1220,25 +1220,25 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>14</v>
@@ -1263,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1282,25 +1282,25 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H30" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1313,25 +1313,25 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1344,25 +1344,25 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1375,25 +1375,25 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D34" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3.784467215122441</v>
@@ -1437,25 +1437,25 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3.765956296340004</v>
@@ -1468,25 +1468,25 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3.765956296340004</v>
@@ -1499,25 +1499,25 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3.753773612907968</v>
@@ -1530,25 +1530,25 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3.753773612907968</v>
@@ -1561,25 +1561,25 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1592,25 +1592,25 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1623,25 +1623,25 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1654,25 +1654,25 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D42" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1716,25 +1716,25 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1778,25 +1778,25 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1809,25 +1809,25 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="F47" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1840,25 +1840,25 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1874,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>18</v>
@@ -1883,13 +1883,13 @@
         <v>24</v>
       </c>
       <c r="F49" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H49" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1902,25 +1902,25 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3.7418341255014</v>
@@ -1933,25 +1933,25 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>3.704373882910039</v>
@@ -1964,25 +1964,25 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3.701788363816136</v>
@@ -1995,25 +1995,25 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H53" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2026,25 +2026,25 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2057,13 +2057,13 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>24</v>
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2088,25 +2088,25 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2119,25 +2119,25 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H57" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2150,25 +2150,25 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F58" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G58" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H58" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2181,25 +2181,25 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>4.165743100826401</v>
-      </c>
       <c r="H59" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2212,13 +2212,13 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>18</v>
@@ -2227,10 +2227,10 @@
         <v>200</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2243,25 +2243,25 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2277,22 +2277,22 @@
         <v>90</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2305,25 +2305,25 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>0</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2336,25 +2336,25 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4.165743100826401</v>
+        <v>200</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2367,25 +2367,25 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4.156750201741148</v>
+        <v>0</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>23</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>3.701788363816136</v>
@@ -2398,25 +2398,25 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4.156750201741148</v>
+        <v>0</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>25</v>
+        <v>1.809120356645167</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2432,22 +2432,22 @@
         <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>4.156750201741148</v>
+        <v>0</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>25</v>
+        <v>1.798764444584504</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2463,22 +2463,22 @@
         <v>10</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4.027954501622491</v>
+        <v>0</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>25</v>
+        <v>1.798764444584504</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2491,25 +2491,25 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4.027954501622491</v>
+        <v>0</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>25</v>
+        <v>1.777621140640111</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2525,22 +2525,22 @@
         <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F70" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3.800785233725364</v>
+        <v>0</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>25</v>
+        <v>1.747167725129414</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2553,25 +2553,25 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2.596839248189191</v>
+        <v>0</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>25</v>
+        <v>1.747167725129414</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2584,25 +2584,25 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2.079172234583665</v>
+        <v>0</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>25</v>
+        <v>1.732741066283036</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2.079172234583665</v>
+        <v>0</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>25</v>
+        <v>1.672437738686661</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2646,25 +2646,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.77944554696817</v>
+        <v>0</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>25</v>
+        <v>1.672437738686661</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2677,25 +2677,25 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E75" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F75" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.774623929036278</v>
+        <v>0</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>25</v>
+        <v>1.527374203815571</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2711,22 +2711,22 @@
         <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.660418252900976</v>
+        <v>0</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>25</v>
+        <v>1.527374203815571</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2742,22 +2742,22 @@
         <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.660418252900976</v>
+        <v>0</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>25</v>
+        <v>1.527374203815571</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2770,25 +2770,25 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.660418252900976</v>
+        <v>0</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>25</v>
+        <v>1.471184596136363</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2801,25 +2801,25 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.660418252900976</v>
+        <v>0</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>25</v>
+        <v>1.471184596136363</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2832,25 +2832,25 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1.660418252900976</v>
+        <v>0</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>25</v>
+        <v>1.471184596136363</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2863,25 +2863,25 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1.59773049743122</v>
+        <v>0</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>25</v>
+        <v>1.471184596136363</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2894,25 +2894,25 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1.59773049743122</v>
+        <v>0</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>25</v>
+        <v>1.455251470787918</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2925,25 +2925,25 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1.59773049743122</v>
+        <v>0</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>25</v>
+        <v>1.445650449304527</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2956,25 +2956,25 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1.079479244531133</v>
+        <v>0</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>25</v>
+        <v>1.435828399157612</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>3.672317933998481</v>
@@ -2987,25 +2987,25 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1.079479244531133</v>
+        <v>0</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>25</v>
+        <v>1.435828399157612</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>3.672317933998481</v>
@@ -3018,25 +3018,25 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1.079479244531133</v>
+        <v>0</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>3.672317933998481</v>
@@ -3049,25 +3049,25 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1.079479244531133</v>
+        <v>0</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3080,25 +3080,25 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1.079479244531133</v>
+        <v>0</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3114,22 +3114,22 @@
         <v>40</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3145,22 +3145,22 @@
         <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3176,10 +3176,10 @@
         <v>40</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>18</v>
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3204,25 +3204,25 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3235,25 +3235,25 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3266,25 +3266,25 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3297,25 +3297,25 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3328,25 +3328,25 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3359,25 +3359,25 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>25</v>
+        <v>1.133313320622665</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3390,25 +3390,25 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>25</v>
+        <v>0.9844693706780457</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D99" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="F99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>25</v>
+        <v>0.9844693706780457</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>3.671768366703272</v>
@@ -3455,22 +3455,22 @@
         <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.9424528301886794</v>
+        <v>0</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>25</v>
+        <v>0.9844693706780457</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>3.671768366703272</v>
